--- a/Attitude Loose/Attitude Loose/Templates/Monthly Turnaround Template.xlsx
+++ b/Attitude Loose/Attitude Loose/Templates/Monthly Turnaround Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="3" r:id="rId1"/>
@@ -610,12 +610,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -673,10 +687,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -734,10 +758,50 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -795,54 +859,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -878,8 +898,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:P2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table142" displayName="Table142" ref="A1:P3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:P3"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Trial ID" dataDxfId="58"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="57"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="56"/>
+    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="55"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="54"/>
+    <tableColumn id="6" name="Accepted Date" dataDxfId="53"/>
+    <tableColumn id="7" name="TSR Date" dataDxfId="52"/>
+    <tableColumn id="8" name="On-Hold Date" dataDxfId="51"/>
+    <tableColumn id="9" name="Off-Hold Date" dataDxfId="50"/>
+    <tableColumn id="10" name="On-Hold Reason" dataDxfId="49"/>
+    <tableColumn id="11" name="On-Hold Description" dataDxfId="48"/>
+    <tableColumn id="16" name="Comments / Additional On-Hold" dataDxfId="47"/>
+    <tableColumn id="12" name="Processing Status" dataDxfId="46"/>
+    <tableColumn id="13" name="Overall Duration (days)" dataDxfId="45"/>
+    <tableColumn id="14" name="On-Hold Time (days)" dataDxfId="44"/>
+    <tableColumn id="15" name="Processing Time (days)" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:P3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:P3"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Trial ID" dataDxfId="36"/>
+    <tableColumn id="2" name="Trial Type" dataDxfId="35"/>
+    <tableColumn id="3" name="Submission#" dataDxfId="34"/>
+    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="33"/>
+    <tableColumn id="5" name="Lead Oganization" dataDxfId="32"/>
+    <tableColumn id="6" name="Accepted Date" dataDxfId="31"/>
+    <tableColumn id="7" name="TSR Date" dataDxfId="30"/>
+    <tableColumn id="8" name="On-Hold Date" dataDxfId="29"/>
+    <tableColumn id="9" name="Off-Hold Date" dataDxfId="28"/>
+    <tableColumn id="10" name="On-Hold Reason" dataDxfId="27"/>
+    <tableColumn id="11" name="On-Hold Description" dataDxfId="26"/>
+    <tableColumn id="16" name="Comments / Additional On-Hold" dataDxfId="25"/>
+    <tableColumn id="12" name="Processing Status" dataDxfId="24"/>
+    <tableColumn id="13" name="Overall Duration (days)" dataDxfId="23"/>
+    <tableColumn id="14" name="On-Hold Time (days)" dataDxfId="22"/>
+    <tableColumn id="15" name="Processing Time (days)" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:P3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:P3"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Trial ID" dataDxfId="17"/>
     <tableColumn id="2" name="Trial Type" dataDxfId="16"/>
@@ -897,56 +967,6 @@
     <tableColumn id="13" name="Overall Duration (days)" dataDxfId="4"/>
     <tableColumn id="14" name="On-Hold Time (days)" dataDxfId="3"/>
     <tableColumn id="15" name="Processing Time (days)" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
-  <autoFilter ref="A1:P2"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Trial ID" dataDxfId="35"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="34"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="33"/>
-    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="32"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="31"/>
-    <tableColumn id="6" name="Accepted Date" dataDxfId="30"/>
-    <tableColumn id="7" name="TSR Date" dataDxfId="29"/>
-    <tableColumn id="8" name="On-Hold Date" dataDxfId="28"/>
-    <tableColumn id="9" name="Off-Hold Date" dataDxfId="27"/>
-    <tableColumn id="10" name="On-Hold Reason" dataDxfId="26"/>
-    <tableColumn id="11" name="On-Hold Description" dataDxfId="25"/>
-    <tableColumn id="16" name="Comments / Additional On-Hold" dataDxfId="24"/>
-    <tableColumn id="12" name="Processing Status" dataDxfId="23"/>
-    <tableColumn id="13" name="Overall Duration (days)" dataDxfId="22"/>
-    <tableColumn id="14" name="On-Hold Time (days)" dataDxfId="21"/>
-    <tableColumn id="15" name="Processing Time (days)" dataDxfId="20"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37">
-  <autoFilter ref="A1:P2"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Trial ID" dataDxfId="53"/>
-    <tableColumn id="2" name="Trial Type" dataDxfId="52"/>
-    <tableColumn id="3" name="Submission#" dataDxfId="51"/>
-    <tableColumn id="4" name="Summary 4 Funding Category" dataDxfId="50"/>
-    <tableColumn id="5" name="Lead Oganization" dataDxfId="49"/>
-    <tableColumn id="6" name="Accepted Date" dataDxfId="48"/>
-    <tableColumn id="7" name="TSR Date" dataDxfId="47"/>
-    <tableColumn id="8" name="On-Hold Date" dataDxfId="46"/>
-    <tableColumn id="9" name="Off-Hold Date" dataDxfId="45"/>
-    <tableColumn id="10" name="On-Hold Reason" dataDxfId="44"/>
-    <tableColumn id="11" name="On-Hold Description" dataDxfId="43"/>
-    <tableColumn id="16" name="Comments / Additional On-Hold" dataDxfId="42"/>
-    <tableColumn id="12" name="Processing Status" dataDxfId="41"/>
-    <tableColumn id="13" name="Overall Duration (days)" dataDxfId="40"/>
-    <tableColumn id="14" name="On-Hold Time (days)" dataDxfId="39"/>
-    <tableColumn id="15" name="Processing Time (days)" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1251,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1324,6 +1344,9 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
@@ -2295,10 +2318,10 @@
   </sheetData>
   <autoFilter ref="R1:T1"/>
   <conditionalFormatting sqref="A3:A1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+  <conditionalFormatting sqref="A1:A3">
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="90" r:id="rId1"/>
@@ -7136,13 +7159,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R132:R1048576 R1">
-    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B401">
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7154,7 +7177,7 @@
   <dimension ref="A1:Z426"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7226,6 +7249,9 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
     </row>
@@ -10277,7 +10303,7 @@
   </sheetData>
   <autoFilter ref="R1:T1"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -10290,8 +10316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1130"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10365,6 +10391,9 @@
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
     </row>
@@ -13914,8 +13943,8 @@
     </row>
   </sheetData>
   <autoFilter ref="R1:T1"/>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+  <conditionalFormatting sqref="A1:A3">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
